--- a/biology/Botanique/Vandenboschia/Vandenboschia.xlsx
+++ b/biology/Botanique/Vandenboschia/Vandenboschia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vandenboschia est un genre de fougères de la famille des Hyménophyllacées. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre présentent :
 un rhizome rampant ou érigé, couvert de poils ;
@@ -551,10 +565,12 @@
           <t>Historique du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été créé en 1938 par Edwin Bingham Copeland[1] en hommage au botaniste néerlandais Roelof Benjamin van den Bosch.
-En 1961, Harry Howard Barton Allan en fait un sous-genre du genre Trichomanes[2] mais dès 1954, Richard Eric Holttum[3] faisait référence à ce sous-genre, non publié.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été créé en 1938 par Edwin Bingham Copeland en hommage au botaniste néerlandais Roelof Benjamin van den Bosch.
+En 1961, Harry Howard Barton Allan en fait un sous-genre du genre Trichomanes mais dès 1954, Richard Eric Holttum faisait référence à ce sous-genre, non publié.
 En 1968, Conrad Vernon Morton ne reconnaît pas ce sous-genre et lui préfère le sous-genre Lacosteopsis, suivi en cela par Toshiyuki Nakaike en 1975.
 Enfin en 2006, Ebihara, Jean-Yves Dubuisson, Iwatsuki, Hennequin et Ito, sur la base d'études de phylogénétique moléculaire, le redéfinissent comme genre à part entière, avec deux sous-genres : Vandenboschia et Lacosteopsis.
 </t>
@@ -585,17 +601,55 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI[4] et Tropicos[5] à la date de juin 2010. Lorsque ce indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI et Tropicos à la date de juin 2010. Lorsque ce indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Christensen (en général retranscrit par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité.
 Le genre est composé de deux sous-genre : Vandenboschia et Lacosteopsis.
-Sous-genre Vandenboschia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vandenboschia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vandenboschia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Vandenboschia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Vandenboschia johnstonensis
 			Vandenboschia maxima
 			Vandenboschia speciosa
 Les frondes de ce sous-genre sont fortement divisées, de deux à cinq fois.
 Vandenboschia amabilis (Nakai) K.Iwats. (1958) - Corée (Synonymes : Trichomanes amabile Nakai, Crepidomanes amabile (Nakai) K.Iwats.)
-Vandenboschia anceps (Wall.) Subh.Chandra &amp; S.Kaur (1985) - Indochine, Asie tropicale (Synonymes : Trichomanes anceps Wall.[7], Trichomanes radicans var anceps (Wall.) Clarke)
+Vandenboschia anceps (Wall.) Subh.Chandra &amp; S.Kaur (1985) - Indochine, Asie tropicale (Synonymes : Trichomanes anceps Wall., Trichomanes radicans var anceps (Wall.) Clarke)
 Vandenboschia assimilis Ching &amp; P.C.Chiu (1959) - Chine (Hainan)
 Vandenboschia birmanica (Bedd.) Ching (1959) - Asie tropicale (Chine méridionale, Cambodge, Japon, Laos, Myanmar, Thaïlande, Vietnam, Corée du Sud) (Synonymes : Trichomanes birmanicum Bedd., Crepidomanes birmanicum (Bedd.) K.Iwats., Trichomanes radicans var. birmanicum (Bedd.) C.Chr.)
 Vandenboschia boschiana (J.W.Sturm) Ebihara &amp; K.Iwats. (2006) - Amérique du Nord (États Unis) (Synonyme : Trichomanes boschianum J.W.Sturm.)
@@ -609,7 +663,7 @@
 Vandenboschia kalamocarpa (Hayata) Ebihara (2009) - Taïwan (Synonyme : Trichomanes kalamocarpum Hayata)
 Vandenboschia liukiuensis (Y.Yabe) Tagawa (1951) - Liu Kiu (Synonymes : Trichomanes liukiuense Yabe, Crepidomanes liukiuense (Yabe) K.Iwats.)
 Vandenboschia lofoushanensis Ching (1959) - Chine (Guandong) (Synonyme : Crepidomanes lofoushanense (Ching) K.Iwats.)
-Vandenboschia martinezii (Rovirosa) Pic.Serm. (1973) - Mexique (Synonyme : Trichomanes martinezii Rovirosa[8])
+Vandenboschia martinezii (Rovirosa) Pic.Serm. (1973) - Mexique (Synonyme : Trichomanes martinezii Rovirosa)
 Vandenboschia maxima (Blume) Copel. (1938) - Indonésie, Japon, Malaisie, Polynésie, Taïwan (Synonymes : Crepidomanes maximum (Blume) K.Iwats., Lacosteopsis maxima (Blume) Nakaike, Trichomanes maximum Blume, Trichomanes maximum var. minus Blume, Trichomanes japonicum var. formosanum Christ, Trichomanes preslianum Nakai)
 Vandenboschia miuraensis Ebihara (2009) - Japon
 Vandenboschia naseana (Christ) Ching (1959) - Chine, Liu Kiu (Synonymes : Trichomanes naseanum Christ, Crepidomanes radicans var naseanum (Christ) K.Iwats.)
@@ -624,17 +678,86 @@
 Vandenboschia speciosa (Willd.) G.Kunkel (1966) - Europe (dont France), Madagascar (Synonyme : Trichomanes speciosum Willd.)
 Vandenboschia × stenosiphon (Christ ex H.Lév.) Copel. (1938) - Corée (Fougère hybride - Synonyme : Trichomanes stenosiphon Christ ex H.Lév.)
 Vandenboschia subclathrata K.Iwats. (1958) - Japon, Liu Kiu (Synonyme : Crepidomanes subclathratum (K.Iwats.) K.Iwats.)
-Vandenboschia tubiflora F.S.Wagner (1995) - Îles Hawaï
-Sous-genre Lacosteopsis
+Vandenboschia tubiflora F.S.Wagner (1995) - Îles Hawaï</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vandenboschia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vandenboschia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Lacosteopsis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Vandenboschia auriculata
 			Vandenboschia rupestris
 Les frondes de ce sous-genre sont simples, divisées au plus une fois.
 Vandenboschia auriculata (Blume) Copel. (1938) - Japon, Chine, Asie tropicale (Synonymes : Cephalomanes auriculatum (Blume) Bosch, Cephalomanes dissectum (J.Sm.) Bosch, Crepidomanes auriculatum (Blume) K.Iwats., Lacostea auriculata (Blume) Prantl, Lacosteopsis auriculata (Blume) Nakaike, Trichomanes auriculatum Blume, Trichomanes belangeri Bory, Trichomanes dimidiatum C.Presl, Trichomanes dissectum J.Sm.)
 Vandenboschia fargesii (Christ) Ching (1959) - Chine (Synonymes : Trichomanes fargesii Christ, Crepidomanes fargesii (Christ) K.Iwats.)
 Vandenboschia hainanensis Ching &amp; P.C.Chiu (1959) - Chine (Hainan)
-Vandenboschia rupestris (Raddi) Ebihara &amp; K.Iwats. (2006) - Amérique du Sud : Bolivie, Brésil, Colombie, Pérou et Venezuela (Synonymes : Hymenophyllum rupestre Raddi, Trichomanes frondosum Fée, Trichomanes luschnathianum C.Presl, Trichomanes rupestre (Raddi) Bosch, Trichomanes rupestre var. frondosum (Fée) Luetzelb., Tricomanes venustum Desv.)
-Espèces synonymes ou classées par ailleurs
-Vandenboschia africana (Christ) G.Kunkel (1963) - Afrique occidentale tropicale (Gabon) - Voir Crepidomanes africanum (Christ) Ebihara &amp; Dubuisson (synonyme : Trichomanes africanum Christ)
+Vandenboschia rupestris (Raddi) Ebihara &amp; K.Iwats. (2006) - Amérique du Sud : Bolivie, Brésil, Colombie, Pérou et Venezuela (Synonymes : Hymenophyllum rupestre Raddi, Trichomanes frondosum Fée, Trichomanes luschnathianum C.Presl, Trichomanes rupestre (Raddi) Bosch, Trichomanes rupestre var. frondosum (Fée) Luetzelb., Tricomanes venustum Desv.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vandenboschia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vandenboschia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces synonymes ou classées par ailleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vandenboschia africana (Christ) G.Kunkel (1963) - Afrique occidentale tropicale (Gabon) - Voir Crepidomanes africanum (Christ) Ebihara &amp; Dubuisson (synonyme : Trichomanes africanum Christ)
 Vandenboschia angustata (Carmich.) Copel. (1941) - Tristan d'Acunha - Voir Polyphlebium angustatum (Carmich.) Ebihara &amp; Dubuisson (synonyme : Trichomanes angustatum Carmich.)
 Vandenboschia aphlebioides (Christ) Copel. (1938) - Nouvelle-Guinée - Voir Crepidomanes aphlebioides (Christ) I.M.Turner (synonyme : Trichomanes aphleboides Chirst)
 Vandenboschia borbonica (Bosch) G.Kunkel (1963) - Afrique centrale et du sud, Madagascar - Voir Polyphlebium borbonicum (Bosch) Ebihara &amp; Dubuisson (synonymes :Crepidomanes borbonicum (Bosch) J.P.Roux, Trichomanes borbonicum Bosch)
